--- a/MasterTestData.xlsx
+++ b/MasterTestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="13290" windowHeight="6195"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -30,41 +30,26 @@
     <t>TC01</t>
   </si>
   <si>
-    <t>SavingsBalance</t>
-  </si>
-  <si>
-    <t>CurrentBalance</t>
-  </si>
-  <si>
-    <t>CurrentAccNum</t>
-  </si>
-  <si>
-    <t>SavingsAccNum</t>
-  </si>
-  <si>
     <t>TC02</t>
   </si>
   <si>
-    <t>BeneficiaryType</t>
-  </si>
-  <si>
-    <t>BeneficiaryName</t>
-  </si>
-  <si>
-    <t>BeneficiaryAccounts</t>
-  </si>
-  <si>
-    <t>Transfer within the bank</t>
-  </si>
-  <si>
-    <t>Akash AD:Hari Ram</t>
+    <t>mani.kubaran@gmail.com</t>
+  </si>
+  <si>
+    <t>sarvesh_2020</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>TV 65 inch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +90,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -151,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,9 +176,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,6 +211,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,17 +387,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -413,7 +408,7 @@
     <col min="10" max="10" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,69 +421,56 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
